--- a/biology/Histoire de la zoologie et de la botanique/Andrew_Smith_(zoologiste)/Andrew_Smith_(zoologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Andrew_Smith_(zoologiste)/Andrew_Smith_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrew Smith est un médecin-militaire et un zoologiste écossais, né le 3 décembre 1797 près d'Hawick (Roxburghshire) et mort le 11 août 1872 à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir obtenu un titre de docteur à Édimbourg en 1819, il rejoint l'armée britannique dans laquelle il sert de 1815 à 1858. Il est d'abord en poste au Canada et à Malte, puis arrive au Cap en 1827. Il revient à Londres lorsque son régiment est rappelé en 1837. Durant cette période, il passe beaucoup de temps à la frontière. Il y étudie la faune et la flore ainsi que les tribus qui y vivent.
 Il fonde, en 1825, le Muséum d'Afrique du Sud dont il est le premier directeur. Il conduit, de 1834 à 1836, une expédition destinée à explorer le Transvaal et constituer des collections.
